--- a/lte-frontend/public/tbcell模板.xlsx
+++ b/lte-frontend/public/tbcell模板.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16402\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\16402\Documents\Tencent Files\1640237630\FileRecv\MobileFile\实验数据和指导书\xxx地区TD-LTE网络数据\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF413AA2-452B-4DAE-ABE4-8D3BCE24B9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDC1918-98D7-4382-AA32-7D44960BBEE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,92 +32,93 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
+    <t>小区ID</t>
+  </si>
+  <si>
+    <t>小区名称</t>
+  </si>
+  <si>
+    <t>小区所属基站标识</t>
+  </si>
+  <si>
+    <t>基站名称</t>
+  </si>
+  <si>
+    <t>小区配置的频点编号</t>
+  </si>
+  <si>
+    <t>物理小区标识</t>
+  </si>
+  <si>
+    <t>主同步信号标识</t>
+  </si>
+  <si>
+    <t>辅同步信号标识</t>
+  </si>
+  <si>
+    <t>跟踪区编码</t>
+  </si>
+  <si>
+    <t>供应商</t>
+  </si>
+  <si>
+    <t>经度</t>
+  </si>
+  <si>
+    <t>纬度</t>
+  </si>
+  <si>
+    <t>基站类型</t>
+  </si>
+  <si>
+    <t>小区天线方位角</t>
+  </si>
+  <si>
+    <t>小区天线高度</t>
+  </si>
+  <si>
+    <t>小区天线电下倾角</t>
+  </si>
+  <si>
+    <t>小区天线机械下倾角</t>
+  </si>
+  <si>
+    <t>总下倾角</t>
+  </si>
+  <si>
+    <t>sanxia</t>
+  </si>
+  <si>
+    <t>124672-0</t>
+  </si>
+  <si>
+    <t>A池刘果-HLHF-1</t>
+  </si>
+  <si>
+    <t>A池刘果-HLHF</t>
+  </si>
+  <si>
+    <t>华为</t>
+  </si>
+  <si>
+    <t>112.77068</t>
+  </si>
+  <si>
+    <t>33.810396</t>
+  </si>
+  <si>
+    <t>宏站</t>
+  </si>
+  <si>
     <t>城市/地区名称</t>
-  </si>
-  <si>
-    <t>小区ID</t>
-  </si>
-  <si>
-    <t>小区名称</t>
-  </si>
-  <si>
-    <t>小区所属基站标识</t>
-  </si>
-  <si>
-    <t>基站名称</t>
-  </si>
-  <si>
-    <t>小区配置的频点编号</t>
-  </si>
-  <si>
-    <t>物理小区标识</t>
-  </si>
-  <si>
-    <t>主同步信号标识</t>
-  </si>
-  <si>
-    <t>辅同步信号标识</t>
-  </si>
-  <si>
-    <t>跟踪区编码</t>
-  </si>
-  <si>
-    <t>供应商</t>
-  </si>
-  <si>
-    <t>经度</t>
-  </si>
-  <si>
-    <t>纬度</t>
-  </si>
-  <si>
-    <t>基站类型</t>
-  </si>
-  <si>
-    <t>小区天线方位角</t>
-  </si>
-  <si>
-    <t>小区天线高度</t>
-  </si>
-  <si>
-    <t>小区天线电下倾角</t>
-  </si>
-  <si>
-    <t>小区天线机械下倾角</t>
-  </si>
-  <si>
-    <t>总下倾角</t>
-  </si>
-  <si>
-    <t>sanxia</t>
-  </si>
-  <si>
-    <t>124672-0</t>
-  </si>
-  <si>
-    <t>A池刘果-HLHF-1</t>
-  </si>
-  <si>
-    <t>A池刘果-HLHF</t>
-  </si>
-  <si>
-    <t>华为</t>
-  </si>
-  <si>
-    <t>112.77068</t>
-  </si>
-  <si>
-    <t>33.810396</t>
-  </si>
-  <si>
-    <t>宏站</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -145,6 +146,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -189,7 +197,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -201,6 +209,9 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -518,8 +529,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -533,79 +544,79 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="69.599999999999994" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="D2" s="2">
         <v>124672</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F2" s="2">
         <v>38400</v>
@@ -625,16 +636,16 @@
         <v>14531</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="O2" s="2">
         <v>30</v>
